--- a/Seniors.xlsx
+++ b/Seniors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr/Desktop/Programming/HackThon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ECA1DD-24EA-5640-8A3B-D4EB961427CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2920080-ACA3-EE44-9E17-A0827D865A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12680" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17680" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Image Path</t>
   </si>
   <si>
-    <t>16370220 5570</t>
-  </si>
-  <si>
     <t>Lenore Bird</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>16241106 1720</t>
-  </si>
-  <si>
     <t>Hashim S. Kelly</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>661-9907</t>
   </si>
   <si>
-    <t>16361024 1840</t>
-  </si>
-  <si>
     <t>Jeremy Reyes</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>16011030 0340</t>
-  </si>
-  <si>
     <t>Graiden R. Mills</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>972-695-137-6518</t>
   </si>
   <si>
-    <t>16160601 0450</t>
-  </si>
-  <si>
     <t>Amery Robles</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t>972-470-126-4177</t>
   </si>
   <si>
-    <t>16060622 5407</t>
-  </si>
-  <si>
     <t>Kelsey T. Nicholson</t>
   </si>
   <si>
@@ -169,9 +151,6 @@
     <t>972-421-780-7221</t>
   </si>
   <si>
-    <t>16991215 8640</t>
-  </si>
-  <si>
     <t>Jerome Wade</t>
   </si>
   <si>
@@ -187,9 +166,6 @@
     <t>972-839-104-3530</t>
   </si>
   <si>
-    <t>16600413 5072</t>
-  </si>
-  <si>
     <t>May Mooney</t>
   </si>
   <si>
@@ -205,9 +181,6 @@
     <t>972-112-680-7431</t>
   </si>
   <si>
-    <t>16350814 3009</t>
-  </si>
-  <si>
     <t>Harding X. Hanson</t>
   </si>
   <si>
@@ -223,9 +196,6 @@
     <t>972-390-472-0989</t>
   </si>
   <si>
-    <t>16030928 5229</t>
-  </si>
-  <si>
     <t>Daniel F. Watkins</t>
   </si>
   <si>
@@ -241,9 +211,6 @@
     <t>253-9795</t>
   </si>
   <si>
-    <t>16950521 8264</t>
-  </si>
-  <si>
     <t>Janna Dickerson</t>
   </si>
   <si>
@@ -259,9 +226,6 @@
     <t>972-619-248-6250</t>
   </si>
   <si>
-    <t>16970916 8554</t>
-  </si>
-  <si>
     <t>Rina Henson</t>
   </si>
   <si>
@@ -277,9 +241,6 @@
     <t>972-815-114-9322</t>
   </si>
   <si>
-    <t>16880103 5745</t>
-  </si>
-  <si>
     <t>Nolan D. Mcdaniel</t>
   </si>
   <si>
@@ -295,9 +256,6 @@
     <t>561-3233</t>
   </si>
   <si>
-    <t>16450419 4459</t>
-  </si>
-  <si>
     <t>Jocelyn B. Roman</t>
   </si>
   <si>
@@ -313,9 +271,6 @@
     <t>270-8495</t>
   </si>
   <si>
-    <t>16060413 1250</t>
-  </si>
-  <si>
     <t>Hayes A. Shaffer</t>
   </si>
   <si>
@@ -331,9 +286,6 @@
     <t>972-459-234-0233</t>
   </si>
   <si>
-    <t>16021005 3401</t>
-  </si>
-  <si>
     <t>Hiroko Robles</t>
   </si>
   <si>
@@ -349,9 +301,6 @@
     <t>972-683-513-4138</t>
   </si>
   <si>
-    <t>16851227 5465</t>
-  </si>
-  <si>
     <t>Chloe O. Goodman</t>
   </si>
   <si>
@@ -367,9 +316,6 @@
     <t>327-0420</t>
   </si>
   <si>
-    <t>16360218 1350</t>
-  </si>
-  <si>
     <t>Norman Huffman</t>
   </si>
   <si>
@@ -383,9 +329,6 @@
   </si>
   <si>
     <t>972-787-101-7220</t>
-  </si>
-  <si>
-    <t>16820308 3772</t>
   </si>
   <si>
     <t>Quamar Cook</t>
@@ -437,11 +380,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,9 +422,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -798,7 +748,8 @@
     <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -834,45 +785,45 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>16370220</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
       </c>
       <c r="K2">
         <v>31.761110646090501</v>
@@ -880,37 +831,40 @@
       <c r="L2">
         <v>35.215873008736502</v>
       </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
+      <c r="A3">
+        <v>16241106</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>31.766006224313401</v>
@@ -918,37 +872,40 @@
       <c r="L3">
         <v>35.222065533230698</v>
       </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
+      <c r="A4">
+        <v>16361024</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
       </c>
       <c r="K4">
         <v>31.751133949322401</v>
@@ -956,37 +913,40 @@
       <c r="L4">
         <v>35.214243397027502</v>
       </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>31</v>
+      <c r="A5">
+        <v>16011030</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <v>31.7565843149942</v>
@@ -994,37 +954,40 @@
       <c r="L5">
         <v>35.200771939964703</v>
       </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>37</v>
+      <c r="A6">
+        <v>16160601</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>31.7721946034045</v>
@@ -1032,37 +995,40 @@
       <c r="L6">
         <v>35.209897765535104</v>
       </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>43</v>
+      <c r="A7">
+        <v>16060622</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K7">
         <v>31.744759385475898</v>
@@ -1070,37 +1036,40 @@
       <c r="L7">
         <v>35.204683007806402</v>
       </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>49</v>
+      <c r="A8">
+        <v>16991215</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8">
         <v>31.745498487805701</v>
@@ -1108,37 +1077,40 @@
       <c r="L8">
         <v>35.214460678060497</v>
       </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>55</v>
+      <c r="A9">
+        <v>16600413</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9">
         <v>31.792893399593801</v>
@@ -1146,37 +1118,40 @@
       <c r="L9">
         <v>35.209602919289402</v>
       </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>61</v>
+      <c r="A10">
+        <v>16350814</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K10">
         <v>31.7986397468067</v>
@@ -1184,37 +1159,40 @@
       <c r="L10">
         <v>35.2157884713098</v>
       </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>67</v>
+      <c r="A11">
+        <v>16030928</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11">
         <v>31.795827749192501</v>
@@ -1222,37 +1200,40 @@
       <c r="L11">
         <v>35.218809322296501</v>
       </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>73</v>
+      <c r="A12">
+        <v>16950521</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12">
         <v>31.784089791888899</v>
@@ -1260,37 +1241,40 @@
       <c r="L12">
         <v>35.218233922322902</v>
       </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>79</v>
+      <c r="A13">
+        <v>16970916</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13">
         <v>32.0217721391057</v>
@@ -1298,37 +1282,40 @@
       <c r="L13">
         <v>34.7849255699549</v>
       </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>85</v>
+      <c r="A14">
+        <v>16880103</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>32.0157200100099</v>
@@ -1336,37 +1323,40 @@
       <c r="L14">
         <v>34.783848136068002</v>
       </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>91</v>
+      <c r="A15">
+        <v>16450419</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>32.019450300364603</v>
@@ -1374,37 +1364,40 @@
       <c r="L15">
         <v>34.790043380917702</v>
       </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>97</v>
+      <c r="A16">
+        <v>16060413</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C16">
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K16">
         <v>32.013969005024997</v>
@@ -1412,37 +1405,40 @@
       <c r="L16">
         <v>34.789280198581203</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>103</v>
+      <c r="M16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16021005</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C17">
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K17">
         <v>32.014121267656201</v>
@@ -1450,37 +1446,40 @@
       <c r="L17">
         <v>34.7753633442086</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>109</v>
+      <c r="M17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16851227</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" t="s">
         <v>112</v>
       </c>
-      <c r="G18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" t="s">
-        <v>131</v>
-      </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18">
         <v>32.023049699648503</v>
@@ -1488,37 +1487,40 @@
       <c r="L18">
         <v>34.7703650642814</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>115</v>
+      <c r="M18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16360218</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K19">
         <v>32.030433394755903</v>
@@ -1526,43 +1528,49 @@
       <c r="L19">
         <v>34.7679024531406</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>121</v>
+      <c r="M19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16820308</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20">
         <v>32.032164657822797</v>
       </c>
       <c r="L20">
         <v>34.762857103064803</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
